--- a/vignettes/course_docs/Spring_2022_schedule.xlsx
+++ b/vignettes/course_docs/Spring_2022_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Github/cognition/vignettes/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30BE45A-CEA7-734B-8A4C-3FB65BBE27BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7165B9E-59B5-1E4B-A795-A69F572F140A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="500" windowWidth="27840" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>Week</t>
   </si>
@@ -36,48 +36,9 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Getting started</t>
-  </si>
-  <si>
-    <t>[What is Cognition?](https://www.crumplab.com/cognition/textbook/what-is-cognition.html)</t>
-  </si>
-  <si>
-    <t>[Mental Imagery](https://www.crumplab.com/cognition/textbook/mental-imagery.html)</t>
-  </si>
-  <si>
-    <t>[Associations](https://www.crumplab.com/cognition/textbook/associations.html)</t>
-  </si>
-  <si>
-    <t>[Behaviorism](https://www.crumplab.com/cognition/textbook/behaviorism.html)</t>
-  </si>
-  <si>
-    <t>[Information Processing](https://www.crumplab.com/cognition/textbook/information-processing.html)</t>
-  </si>
-  <si>
-    <t>[Memory I](https://www.crumplab.com/cognition/textbook/memory-i.html)</t>
-  </si>
-  <si>
-    <t>[Memory II](https://www.crumplab.com/cognition/textbook/memory-ii.html)</t>
-  </si>
-  <si>
-    <t>Implicit Cognition (reading on Blackboard)</t>
-  </si>
-  <si>
-    <t>Attention and Working Memory (reading on Blackboard)</t>
-  </si>
-  <si>
-    <t>Language and Semantic Cognition (reading on Blackboard)</t>
-  </si>
-  <si>
-    <t>Judgment and Decision Making (reading on Blackboard)</t>
-  </si>
-  <si>
     <t>F 1/28/22</t>
   </si>
   <si>
-    <t>Topic</t>
-  </si>
-  <si>
     <t>1/31 - 2/4</t>
   </si>
   <si>
@@ -126,9 +87,6 @@
     <t>5/9 - 5/13</t>
   </si>
   <si>
-    <t>[Eugenics and Psychology](https://www.crumplab.com/cognition/textbook/eugenics-and-psychology.html) &amp; [Intelligence Testing](https://www.crumplab.com/cognition/textbook/intelligence-testing.html)</t>
-  </si>
-  <si>
     <t>**Midterm I**</t>
   </si>
   <si>
@@ -136,6 +94,78 @@
   </si>
   <si>
     <t>**FINAL EXAM**</t>
+  </si>
+  <si>
+    <t>Learning Module</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>[Getting started](https://www.crumplab.com/cognition/articles/modules/L0_Getting_Started.html)</t>
+  </si>
+  <si>
+    <t>[Reading Chpt 1](https://www.crumplab.com/cognition/textbook/what-is-cognition.html)</t>
+  </si>
+  <si>
+    <t>[What is Cognition?](https://www.crumplab.com/cognition/articles/modules/L1_What_is_cognition.html)</t>
+  </si>
+  <si>
+    <t>Mental Imagery</t>
+  </si>
+  <si>
+    <t>Eugenics, Psychology, and Intelligence Testing</t>
+  </si>
+  <si>
+    <t>[Reading Chpt 2](https://www.crumplab.com/cognition/textbook/mental-imagery.html)</t>
+  </si>
+  <si>
+    <t>[Reading Chpt 3](https://www.crumplab.com/cognition/textbook/eugenics-and-psychology.html) &amp; [Reading Chpt 4](https://www.crumplab.com/cognition/textbook/intelligence-testing.html)</t>
+  </si>
+  <si>
+    <t>Associations</t>
+  </si>
+  <si>
+    <t>Behaviorism</t>
+  </si>
+  <si>
+    <t>[Reading Chpt 5](https://www.crumplab.com/cognition/textbook/associations.html)</t>
+  </si>
+  <si>
+    <t>[Reading Chpt 6](https://www.crumplab.com/cognition/textbook/behaviorism.html)</t>
+  </si>
+  <si>
+    <t>Information Processing</t>
+  </si>
+  <si>
+    <t>Memory I</t>
+  </si>
+  <si>
+    <t>Memory II</t>
+  </si>
+  <si>
+    <t>[Reading Chpt 7](https://www.crumplab.com/cognition/textbook/information-processing.html)</t>
+  </si>
+  <si>
+    <t>[Reading Chpt 8](https://www.crumplab.com/cognition/textbook/memory-i.html)</t>
+  </si>
+  <si>
+    <t>[Reading Chpt 9](https://www.crumplab.com/cognition/textbook/memory-ii.html)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implicit Cognition </t>
+  </si>
+  <si>
+    <t>(reading on Blackboard)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attention and Working Memory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language and Semantic Cognition </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judgment and Decision Making </t>
   </si>
 </sst>
 </file>
@@ -460,7 +490,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,7 +498,7 @@
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="30" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -480,73 +510,91 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -554,55 +602,67 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -610,51 +670,60 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -663,7 +732,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">

--- a/vignettes/course_docs/Spring_2022_schedule.xlsx
+++ b/vignettes/course_docs/Spring_2022_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Github/cognition/vignettes/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7165B9E-59B5-1E4B-A795-A69F572F140A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85154E02-A293-C54D-816E-FE9C3B76DBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="500" windowWidth="27840" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="500" windowWidth="27840" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,9 +111,6 @@
     <t>[What is Cognition?](https://www.crumplab.com/cognition/articles/modules/L1_What_is_cognition.html)</t>
   </si>
   <si>
-    <t>Mental Imagery</t>
-  </si>
-  <si>
     <t>Eugenics, Psychology, and Intelligence Testing</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t xml:space="preserve">Judgment and Decision Making </t>
+  </si>
+  <si>
+    <t>[Mental Imagery](https://www.crumplab.com/cognition/articles/modules/L2_Mental_imagery.html)</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -549,10 +549,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="204" x14ac:dyDescent="0.2">
@@ -563,10 +563,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="85" x14ac:dyDescent="0.2">
@@ -577,10 +577,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="85" x14ac:dyDescent="0.2">
@@ -591,10 +591,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -616,10 +616,10 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -631,10 +631,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="85" x14ac:dyDescent="0.2">
@@ -645,10 +645,10 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -659,10 +659,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
         <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -692,10 +692,10 @@
         <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -706,10 +706,10 @@
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -720,10 +720,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="1"/>
     </row>

--- a/vignettes/course_docs/Spring_2022_schedule.xlsx
+++ b/vignettes/course_docs/Spring_2022_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Github/cognition/vignettes/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85154E02-A293-C54D-816E-FE9C3B76DBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15388D4-260A-8C43-8099-91CAFBC62A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="500" windowWidth="27840" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,9 +111,6 @@
     <t>[What is Cognition?](https://www.crumplab.com/cognition/articles/modules/L1_What_is_cognition.html)</t>
   </si>
   <si>
-    <t>Eugenics, Psychology, and Intelligence Testing</t>
-  </si>
-  <si>
     <t>[Reading Chpt 2](https://www.crumplab.com/cognition/textbook/mental-imagery.html)</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t>[Mental Imagery](https://www.crumplab.com/cognition/articles/modules/L2_Mental_imagery.html)</t>
+  </si>
+  <si>
+    <t>[Eugenics, Psychology, and Intelligence Testing](https://www.crumplab.com/cognition/articles/modules/L3_Eugenics_IQ.html)</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -549,10 +549,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="204" x14ac:dyDescent="0.2">
@@ -563,10 +563,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="85" x14ac:dyDescent="0.2">
@@ -577,10 +577,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="85" x14ac:dyDescent="0.2">
@@ -591,10 +591,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -616,10 +616,10 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -631,10 +631,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="85" x14ac:dyDescent="0.2">
@@ -645,10 +645,10 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -659,10 +659,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
         <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -692,10 +692,10 @@
         <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -706,10 +706,10 @@
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -720,10 +720,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="1"/>
     </row>

--- a/vignettes/course_docs/Spring_2022_schedule.xlsx
+++ b/vignettes/course_docs/Spring_2022_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Github/cognition/vignettes/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15388D4-260A-8C43-8099-91CAFBC62A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB4B4FA-8E08-7A46-94AF-E16CF6022BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="500" windowWidth="27840" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,12 +117,6 @@
     <t>[Reading Chpt 3](https://www.crumplab.com/cognition/textbook/eugenics-and-psychology.html) &amp; [Reading Chpt 4](https://www.crumplab.com/cognition/textbook/intelligence-testing.html)</t>
   </si>
   <si>
-    <t>Associations</t>
-  </si>
-  <si>
-    <t>Behaviorism</t>
-  </si>
-  <si>
     <t>[Reading Chpt 5](https://www.crumplab.com/cognition/textbook/associations.html)</t>
   </si>
   <si>
@@ -166,6 +160,12 @@
   </si>
   <si>
     <t>[Eugenics, Psychology, and Intelligence Testing](https://www.crumplab.com/cognition/articles/modules/L3_Eugenics_IQ.html)</t>
+  </si>
+  <si>
+    <t>[Associations](https://www.crumplab.com/cognition/articles/modules/L4_Associations.html)</t>
+  </si>
+  <si>
+    <t>[Behaviorism](https://www.crumplab.com/cognition/articles/modules/L5_Behaviorism.html)</t>
   </si>
 </sst>
 </file>
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -549,7 +549,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>27</v>
@@ -563,7 +563,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>28</v>
@@ -577,10 +577,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="85" x14ac:dyDescent="0.2">
@@ -591,10 +591,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -616,10 +616,10 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -631,10 +631,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="85" x14ac:dyDescent="0.2">
@@ -645,10 +645,10 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -659,10 +659,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -692,10 +692,10 @@
         <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -706,10 +706,10 @@
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -720,10 +720,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E17" s="1"/>
     </row>

--- a/vignettes/course_docs/Spring_2022_schedule.xlsx
+++ b/vignettes/course_docs/Spring_2022_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Github/cognition/vignettes/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB4B4FA-8E08-7A46-94AF-E16CF6022BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290D17E7-6F19-EF4E-8B74-6623B2944195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="500" windowWidth="27840" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,15 +123,6 @@
     <t>[Reading Chpt 6](https://www.crumplab.com/cognition/textbook/behaviorism.html)</t>
   </si>
   <si>
-    <t>Information Processing</t>
-  </si>
-  <si>
-    <t>Memory I</t>
-  </si>
-  <si>
-    <t>Memory II</t>
-  </si>
-  <si>
     <t>[Reading Chpt 7](https://www.crumplab.com/cognition/textbook/information-processing.html)</t>
   </si>
   <si>
@@ -141,9 +132,6 @@
     <t>[Reading Chpt 9](https://www.crumplab.com/cognition/textbook/memory-ii.html)</t>
   </si>
   <si>
-    <t xml:space="preserve">Implicit Cognition </t>
-  </si>
-  <si>
     <t>(reading on Blackboard)</t>
   </si>
   <si>
@@ -166,6 +154,18 @@
   </si>
   <si>
     <t>[Behaviorism](https://www.crumplab.com/cognition/articles/modules/L5_Behaviorism.html)</t>
+  </si>
+  <si>
+    <t>[Information Processing](https://www.crumplab.com/cognition/articles/modules/L6_Information_processing.html)</t>
+  </si>
+  <si>
+    <t>[Memory I](https://www.crumplab.com/cognition/articles/modules/L7_Memory_I.html)</t>
+  </si>
+  <si>
+    <t>[Memory II](https://www.crumplab.com/cognition/articles/modules/L8_Memory_II.html)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Implicit Cognition](https://www.crumplab.com/cognition/articles/modules/L9_Implicit_Cognition.html) </t>
   </si>
 </sst>
 </file>
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -549,7 +549,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>27</v>
@@ -563,7 +563,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>28</v>
@@ -577,7 +577,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>29</v>
@@ -591,7 +591,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>30</v>
@@ -616,10 +616,10 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -631,10 +631,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="85" x14ac:dyDescent="0.2">
@@ -645,13 +645,13 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -659,10 +659,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -692,10 +692,10 @@
         <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -706,10 +706,10 @@
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -720,10 +720,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E17" s="1"/>
     </row>
